--- a/biology/Écologie/Brousse_(végétation)/Brousse_(végétation).xlsx
+++ b/biology/Écologie/Brousse_(végétation)/Brousse_(végétation).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brousse_(v%C3%A9g%C3%A9tation)</t>
+          <t>Brousse_(végétation)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brousse est un type de végétation surtout tropicale, essentiellement composée de buissons, arbustes et plantes herbacées [1]. Elle se distingue de la savane qui est une forme de prairie parfois parsemée d'arbres isolés ou groupés en bosquets.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brousse est un type de végétation surtout tropicale, essentiellement composée de buissons, arbustes et plantes herbacées . Elle se distingue de la savane qui est une forme de prairie parfois parsemée d'arbres isolés ou groupés en bosquets.
 Par extension, le terme de brousse désigne en Afrique un espace situé loin des centres urbains, un sens similaire à l'anglais bush, et qui a donné son nom au « taxi-brousse ». En français métropolitain, ce sens a fini par s'appliquer à toute campagne isolée, ou « bled ».
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brousse_(v%C3%A9g%C3%A9tation)</t>
+          <t>Brousse_(végétation)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme de brousse est certainement un emprunt (1876) au provençal « brousso » (brosse) et s'appliquait à l'origine à une formation buissonnante du Sud de la France[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme de brousse est certainement un emprunt (1876) au provençal « brousso » (brosse) et s'appliquait à l'origine à une formation buissonnante du Sud de la France.
 </t>
         </is>
       </c>
